--- a/console/Networking/diskChExcel/diskSnapshotMixins/components/copySnapshot.xlsx
+++ b/console/Networking/diskChExcel/diskSnapshotMixins/components/copySnapshot.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinyonghua\Desktop\translation_review\diskChExcel\diskSnapshotMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,6 @@
     </r>
   </si>
   <si>
-    <t>to view the status progress of the replication operation.</t>
-  </si>
-  <si>
     <t>copySnapshot_i18nKey_16</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     </r>
   </si>
   <si>
-    <t>Disable</t>
-  </si>
-  <si>
     <t>copySnapshot_i18nKey_17</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     </r>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>copySnapshot_i18nKey_19</t>
   </si>
   <si>
@@ -531,6 +522,17 @@
   </si>
   <si>
     <t>Name only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through -'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to check the status progress of the replication operation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,6 +567,12 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -586,13 +594,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,18 +948,18 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="26.59765625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="26.625" style="1"/>
+    <col min="1" max="1" width="26.59765625" style="1"/>
+    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="26.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -970,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -981,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1080,7 +1091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1102,64 +1113,65 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B19" numberStoredAsText="1"/>
   </ignoredErrors>
